--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,24 +536,64 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,23 +603,59 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -590,23 +666,43 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 1,SB 11</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -617,16 +713,32 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -643,48 +755,24 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -701,7 +789,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">6:00 AM MEET RYAN RD PNR (HWY 100 &amp; 94) </t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -709,7 +797,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -717,7 +805,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -725,7 +813,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -733,7 +821,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -745,10 +833,14 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -756,7 +848,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -764,7 +856,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -772,7 +864,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PICK #862 +RX, OAK CREEK-MEGA MALL</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -780,7 +872,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -795,7 +887,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FESTIVAL #2728, SALEM - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -803,7 +895,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #536 +FC-RX, WESTMONT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -811,7 +903,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>17295 WEST CAPITOL DR</t>
+          <t>PICK #368 +RX, BROOKFIELD CAL-CAP</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -819,7 +911,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>8770 S HOWELL AVE</t>
+          <t>PICK #862 +RX, OAK CREEK-MEGA MALL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -827,7 +919,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>PICK #408, TWO RIVERS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -842,7 +934,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>25300 75TH ST</t>
+          <t>FESTIVAL #2728, SALEM - LIFO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -850,7 +942,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>150 W 63RD ST</t>
+          <t>MARIANO'S #536 +FC-RX, WESTMONT</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -858,7 +950,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
+          <t>17295 WEST CAPITOL DR</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -866,7 +958,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/whvAchGPZWU2</t>
+          <t>8770 S HOWELL AVE</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -874,7 +966,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1010 22ND STREET</t>
+          <t>PICK #408, TWO RIVERS</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -889,7 +981,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fj81W3aDTcG2</t>
+          <t>25300 75TH ST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -897,7 +989,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9cugGMSRw3F2</t>
+          <t>150 W 63RD ST</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -905,19 +997,23 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/33rm1Fc6q4o</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/whvAchGPZWU2</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
+          <t>1010 22ND STREET</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -930,41 +1026,37 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fj81W3aDTcG2</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/9cugGMSRw3F2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Lashaun - leave spot in the car for Carlie - Grafton PNR @ 4:50 am</t>
+          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -976,57 +1068,44 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>@ Store,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Lashaun - leave spot in the car for Carlie - Grafton PNR @ 4:50 am</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1038,78 +1117,56 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store,
+White Camry, Equip</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Equip</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>White Camry, Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store,
-White Camry, Equip</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1120,69 +1177,76 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>@ Store,
+Equip</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@ Grafton PNR</t>
+          <t>@ Store,
+White Camry, Equip</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1195,75 +1259,69 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Grafton PNR</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1276,70 +1334,75 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+White Camry</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1352,24 +1415,24 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1380,39 +1443,44 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1423,28 +1491,24 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1455,44 +1519,39 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1501,18 +1560,30 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1523,46 +1594,42 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1579,12 +1646,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1595,12 +1662,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1611,27 +1678,32 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1646,12 +1718,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1662,12 +1734,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1678,24 +1750,24 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1708,21 +1780,17 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1733,12 +1801,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1749,24 +1817,24 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1781,19 +1849,19 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1804,12 +1872,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1820,31 +1888,27 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1856,64 +1920,70 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
         <is>
           <t>@ Store</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1925,51 +1995,53 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, NEOSHO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -1992,19 +2064,19 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>446 S SCHUYER ST</t>
+          <t>DHILLON'S BP, NEOSHO</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2015,29 +2087,28 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2047,11 +2118,7 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>6:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2064,40 +2131,64 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cqKUT41W2wM2</t>
+          <t>446 S SCHUYER ST</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
           <t>15)</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>@ Store,
 Supv Rx</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>7:30 AM START</t>
+          <t>6:15 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2110,22 +2201,27 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/cqKUT41W2wM2</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2140,7 +2236,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2152,47 +2248,38 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1041, TWO RIVERS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2206,15 +2293,20 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -2223,7 +2315,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2231,7 +2323,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2239,7 +2331,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>5300 MEMORIAL DRIVE, SUITE 103</t>
+          <t>AURORA OUTPATIENT RX #1041, TWO RIVERS</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2253,28 +2345,24 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2282,7 +2370,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2290,7 +2378,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7zzPH72TWHs</t>
+          <t>5300 MEMORIAL DRIVE, SUITE 103</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2304,12 +2392,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2317,7 +2405,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2325,7 +2413,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>600 WALNUT RIDGE DR</t>
+          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2333,13 +2421,17 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7zzPH72TWHs</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2349,14 +2441,22 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2364,7 +2464,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
+          <t>600 WALNUT RIDGE DR</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2372,27 +2472,14 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2408,7 +2495,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2416,26 +2503,35 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>*Check with Brookfield PNS after</t>
+          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2445,43 +2541,39 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1125 E JOHNSON ST</t>
+          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>*Check with Brookfield PNS after</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2494,7 +2586,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2502,30 +2594,30 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
+          <t>1125 E JOHNSON ST</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2541,18 +2633,34 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -2572,26 +2680,14 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MAYVILLE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -2602,11 +2698,7 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>MEET AT MAIN ENTRANCE</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2619,34 +2711,29 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1400 HORICON ST</t>
+          <t>DHILLON'S BP, MAYVILLE</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2656,7 +2743,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MEET AT MAIN ENTRANCE</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2671,32 +2758,32 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
+          <t>1400 HORICON ST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2708,7 +2795,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2721,25 +2808,34 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2751,7 +2847,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2763,43 +2859,26 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 26 HOWARDS GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2811,7 +2890,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
+          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2825,32 +2904,41 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>220 N WISCONSIN DR</t>
+          <t>DHILLON'S STATION 26 HOWARDS GROVE</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2862,7 +2950,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
+          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2876,24 +2964,24 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2901,7 +2989,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8Yb9mTahQpte986L6</t>
+          <t>220 N WISCONSIN DR</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2913,7 +3001,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>THEY USUALLY WANT AUDIT TRAILS FOR OTC</t>
+          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2927,24 +3015,24 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2952,7 +3040,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Pick up Carlie at Grafton Park and Ride at 5:20 am</t>
+          <t>https://goo.gl/maps/8Yb9mTahQpte986L6</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -2964,7 +3052,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEED A DIFFERENT PRICE FILE FOR THIS ORG SITE </t>
+          <t>THEY USUALLY WANT AUDIT TRAILS FOR OTC</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2976,24 +3064,36 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Pick up Carlie at Grafton Park and Ride at 5:20 am</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3001,12 +3101,12 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NEED A DIFFERENT PRICE FILE FOR THIS ORG SITE </t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3021,50 +3121,29 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
-          <t>Optima available, Equip</t>
+          <t> </t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -3076,42 +3155,35 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Grafton PNR</t>
+          <t>Driver,
+Altima, Equip</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3121,15 +3193,19 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3141,19 +3217,19 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3164,15 +3240,19 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Grafton PNR</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
@@ -3180,12 +3260,12 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3200,19 +3280,19 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3221,16 +3301,32 @@
         </is>
       </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3243,19 +3339,19 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CONDON OIL #290, MARKESAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3286,21 +3382,29 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>18 S MARGARET ST</t>
+          <t>CONDON OIL #290, MARKESAN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3321,7 +3425,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
+          <t>18 S MARGARET ST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3333,7 +3437,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3356,23 +3460,19 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DAYBREAK, DELAFIELD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3395,7 +3495,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3403,7 +3503,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3411,7 +3511,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>622 GENESEE ST</t>
+          <t>DAYBREAK, DELAFIELD</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3434,7 +3534,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CONDON OIL #260, FAIRWATER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3442,7 +3542,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, IRON RIDGE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3450,7 +3550,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
+          <t>622 GENESEE ST</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3473,7 +3573,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>108 ELM ST</t>
+          <t>CONDON OIL #260, FAIRWATER</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3481,13 +3581,17 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>210 W PLEASANT ST</t>
+          <t>DHILLON'S BP, IRON RIDGE</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dNtyDnuiw6J2</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
@@ -3508,7 +3612,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
+          <t>108 ELM ST</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3516,26 +3620,14 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+          <t>210 W PLEASANT ST</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3553,24 +3645,36 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3587,40 +3691,24 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3640,33 +3728,33 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -3689,18 +3777,30 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3734,12 +3834,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3771,9 +3871,21 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
@@ -3826,11 +3938,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -3859,7 +3967,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3890,7 +3998,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1108, LOMIRA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3921,7 +4029,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>375 EAST AVENUE, SUITE 1</t>
+          <t>AURORA OUTPATIENT RX #1108, LOMIRA</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3952,7 +4060,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HZvTzhm2zfv</t>
+          <t>375 EAST AVENUE, SUITE 1</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -3981,7 +4089,11 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HZvTzhm2zfv</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -4007,21 +4119,9 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4046,9 +4146,21 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4101,11 +4213,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -4134,7 +4242,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4153,6 +4261,37 @@
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -764,7 +764,11 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Red Camry Oil</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1127,7 +1131,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>@ Store,
+          <t>Driver,
 White Camry, Equip</t>
         </is>
       </c>

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2445,16 +2445,8 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -2545,7 +2537,11 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2590,7 +2586,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5:00 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2637,7 +2633,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2684,7 +2680,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S BP, MAYVILLE</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2715,7 +2711,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MAYVILLE</t>
+          <t>1400 HORICON ST</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2762,7 +2758,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1400 HORICON ST</t>
+          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2812,11 +2808,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -2863,9 +2855,22 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
@@ -2908,20 +2913,15 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -2968,12 +2968,12 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3017,16 +3017,8 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -3068,16 +3060,8 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -3120,7 +3104,11 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
@@ -3159,7 +3147,11 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -3221,7 +3213,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3284,7 +3276,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>CONDON OIL #290, MARKESAN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3343,7 +3335,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>18 S MARGARET ST</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3386,7 +3378,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CONDON OIL #290, MARKESAN</t>
+          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3429,7 +3421,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>18 S MARGARET ST</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3464,7 +3456,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3499,7 +3491,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>CONDON OIL #260, FAIRWATER</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3538,7 +3530,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>108 ELM ST</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3577,7 +3569,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CONDON OIL #260, FAIRWATER</t>
+          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3614,11 +3606,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>108 ELM ST</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3648,13 +3636,21 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
@@ -3695,9 +3691,21 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3730,21 +3738,9 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -3781,21 +3777,9 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,10 +1280,15 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1355,15 +1360,10 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -4164,122 +4164,6 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -1280,15 +1280,10 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1360,10 +1355,15 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1436,14 +1436,10 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1512,7 +1508,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1587,7 +1583,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1655,7 +1651,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1727,7 +1723,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1794,7 +1790,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1865,7 +1861,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1936,7 +1932,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2011,13 +2007,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2080,12 +2075,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2147,7 +2143,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2219,13 +2215,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2263,12 +2258,13 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2312,9 +2308,21 @@
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2415,11 +2415,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2460,7 +2456,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2499,7 +2495,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2555,7 +2551,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2602,7 +2598,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1125 E JOHNSON ST</t>
+          <t>FESTIVAL #2717, FOND DU LAC - LIFO</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2649,7 +2645,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
+          <t>1125 E JOHNSON ST</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2694,7 +2690,11 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/Z2cq9GaTh4o</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2724,21 +2724,9 @@
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2773,18 +2761,17 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Driver,
-Sante Fe</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2821,18 +2808,18 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Sante Fe</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2882,15 +2869,20 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -2933,19 +2925,15 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Justin Learned</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
@@ -2988,15 +2976,19 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -3031,12 +3023,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3074,12 +3066,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3121,12 +3113,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3164,12 +3156,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3228,19 +3220,15 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
@@ -3291,12 +3279,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3350,12 +3338,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3393,12 +3381,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3434,9 +3422,21 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3505,11 +3505,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3546,7 +3542,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3585,7 +3581,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, IRON RIDGE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3620,7 +3616,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>210 W PLEASANT ST</t>
+          <t>DHILLON'S BP, IRON RIDGE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3663,7 +3659,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+          <t>210 W PLEASANT ST</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3716,7 +3712,11 @@
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/qwc1LRfmy572</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
@@ -3750,21 +3750,9 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -3791,17 +3779,17 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3830,12 +3818,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -3869,12 +3857,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -3906,9 +3894,21 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
@@ -3961,11 +3961,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -3994,7 +3990,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4025,7 +4021,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1108, LOMIRA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4056,7 +4052,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>375 EAST AVENUE, SUITE 1</t>
+          <t>AURORA OUTPATIENT RX #1108, LOMIRA</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -4087,7 +4083,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HZvTzhm2zfv</t>
+          <t>375 EAST AVENUE, SUITE 1</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -4116,7 +4112,11 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/HZvTzhm2zfv</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4142,21 +4142,9 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4172,6 +4160,45 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -1536,7 +1536,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1964,10 +1964,14 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2040,7 +2044,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2108,7 +2112,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2169,21 +2173,9 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
@@ -2273,7 +2265,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2335,7 +2331,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2382,7 +2378,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2429,7 +2425,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1760, OAK CREEK</t>
+          <t>200 E RYAN ROAD, SUITE 101</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2472,7 +2468,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>200 E RYAN ROAD, SUITE 101</t>
+          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2509,11 +2505,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5XiBYxoT2sF2</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
@@ -2564,9 +2556,21 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2607,21 +2611,9 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
@@ -2702,7 +2694,11 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2733,8 +2729,16 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -1105,11 +1105,7 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Lashaun - leave spot in the car for Carlie - Grafton PNR @ 4:50 am</t>
-        </is>
-      </c>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1168,9 +1164,22 @@
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>@ Store,
+White Camry, Equip</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1239,18 +1248,18 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>@ Store,
-White Camry, Equip</t>
+After Aurora</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1315,17 +1324,18 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Grafton PNR</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1395,20 +1405,15 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1467,18 +1472,18 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1543,15 +1548,20 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1618,20 +1628,15 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1690,20 +1695,15 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1762,12 +1762,12 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1829,12 +1829,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1900,15 +1900,19 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1973,21 +1977,9 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2054,7 +2046,11 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>6:15 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -2122,7 +2118,11 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>7:30 AM START</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2180,7 +2180,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>6:15 AM MEET BAYSHORE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>7:30 AM START</t>
+          <t>AURORA OUTPATIENT RX #1041, TWO RIVERS</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2275,7 +2275,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5300 MEMORIAL DRIVE, SUITE 103</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2339,7 +2339,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1041, TWO RIVERS</t>
+          <t>https://goo.gl/maps/7zzPH72TWHs</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2384,11 +2384,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>5300 MEMORIAL DRIVE, SUITE 103</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2430,13 +2426,22 @@
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7zzPH72TWHs</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>
@@ -2473,8 +2478,16 @@
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2508,22 +2521,9 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2572,16 +2572,8 @@
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2616,7 +2608,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>MEET AT MAIN ENTRANCE</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2663,7 +2659,11 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2702,7 +2702,11 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2743,7 +2747,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>MEET AT MAIN ENTRANCE</t>
+          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2794,7 +2798,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2842,7 +2846,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2903,7 +2907,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1090 IN HOSPITAL MILWAUKEE</t>
+          <t>THEY USUALLY WANT AUDIT TRAILS FOR OTC</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2954,7 +2958,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>2900 W OKLAHOMA AVE, SUITE 1001</t>
+          <t xml:space="preserve">NEED A DIFFERENT PRICE FILE FOR THIS ORG SITE </t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3007,12 +3011,12 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/PCsJWFvuBunFkdpS8</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3049,13 +3053,21 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>THEY USUALLY WANT AUDIT TRAILS FOR OTC</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3092,10 +3104,14 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEED A DIFFERENT PRICE FILE FOR THIS ORG SITE </t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3135,13 +3151,17 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3191,21 +3211,9 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3254,16 +3262,8 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3313,16 +3313,8 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>

--- a/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
+++ b/03-02-25 to 03-08-25 Milwaukee Schedule.xlsx
@@ -698,11 +698,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katherine </t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
